--- a/experiments/capital/bert-base-uncased_15/incorrect_predictions_123.xlsx
+++ b/experiments/capital/bert-base-uncased_15/incorrect_predictions_123.xlsx
@@ -512,46 +512,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft is close to the Home Point</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones . Check map to find Recommended Zones .</t>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aircraft is tilted</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>please keep the aircraft stationary and level before flight</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
+          <t>Check whether propellers are installed correctly . If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is tilted , please keep the aircraft stationary and level before flight</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,46 +687,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Downlink data connection lost for nnn seconds .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.</t>
+          <t>Downlink data connection lost for nnn</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>35-35</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,46 +762,46 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>Exiting GPS mode</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36-39</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,16 +812,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn</t>
+          <t>Exiting GPS mode : Unknown Error</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -837,21 +837,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -862,21 +862,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -887,71 +887,71 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GEO Zone Info:</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
+          <t>Landin .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The target area is in an Altitude Zone</t>
+          <t>Landin</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,46 +987,46 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>28-30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
